--- a/Prix_actis.xlsx
+++ b/Prix_actis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87c2c0a88f8cf697/Bureau/Unif/2 ème année/Q2/BD 2/Projet-BD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{688E4D91-3A35-47B2-9066-1227C7180F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{688E4D91-3A35-47B2-9066-1227C7180F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E26649A4-D09F-4C92-B7EE-7E8E8A54788E}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3915" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{6245D130-C44D-4152-89DB-E6D47CD8A3F0}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6245D130-C44D-4152-89DB-E6D47CD8A3F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Tyes Activités</t>
   </si>
@@ -84,6 +84,69 @@
   </si>
   <si>
     <t>Mini-Golf</t>
+  </si>
+  <si>
+    <t>Type_mat</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>ID_mat</t>
+  </si>
+  <si>
+    <t>Matériel</t>
+  </si>
+  <si>
+    <t>Ballon de Foot</t>
+  </si>
+  <si>
+    <t>Raquettes de Bad</t>
+  </si>
+  <si>
+    <t>Volant</t>
+  </si>
+  <si>
+    <t>Baudrier</t>
+  </si>
+  <si>
+    <t>Clubs de golf</t>
+  </si>
+  <si>
+    <t>Balles de golf</t>
+  </si>
+  <si>
+    <t>Masque et Tuba</t>
+  </si>
+  <si>
+    <t>Raclettes</t>
+  </si>
+  <si>
+    <t>Boite à outils</t>
+  </si>
+  <si>
+    <t>Kit survie</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Entretien</t>
+  </si>
+  <si>
+    <t>Santé</t>
+  </si>
+  <si>
+    <t>Mitigé</t>
+  </si>
+  <si>
+    <t>Bon</t>
+  </si>
+  <si>
+    <t>Très bon</t>
+  </si>
+  <si>
+    <t>Neuve</t>
   </si>
 </sst>
 </file>
@@ -107,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -115,13 +178,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -438,15 +529,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47DA630-0D03-49EB-AECF-8C6B80A3EF46}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,206 +552,388 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>15</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="H4" s="2">
+        <f>H3+1</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <f t="shared" ref="A5:A12" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H12" si="1">H4+1</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>130</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>40</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>40</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>130</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>130</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2">
+        <v>20</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="2">
+        <v>10</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>15</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>3</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="2">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>70</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>150</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="2">
+        <v>30</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
